--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,31 +20,31 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PISHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PISHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNumber_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTotal_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number_Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_Investments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
-  </si>
-  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -158,155 +155,113 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.858 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.885) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.040) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.032) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.448 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.083) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.949) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.527 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.098) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.013) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.077) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.060) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.043) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.041) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.513 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.202) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.903) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.893) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.771 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.886) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.889) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.784 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.871) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.879) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.873) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.869) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.867) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.864) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.859) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.858) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.856) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.168 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.124 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.861) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.939 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.759 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.866) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.863) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.878) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.947 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.874) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.023 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.933 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.892 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.952) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.970 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.933) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.911) </t>
+    <t xml:space="preserve">(0.969)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.218)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.100)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.207)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.091)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.723)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.260)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.002)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.175)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.170)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.366)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.171)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.113)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.024)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.034)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.047)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.071)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.009)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.994)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.989)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.977)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.967)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.968)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.965)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.972)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.975)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.985)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.992)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.987)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.025)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.072)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.051)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.026)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="84">
+  <numFmts count="82">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -389,8 +344,6 @@
     <numFmt numFmtId="50079" formatCode="0.000"/>
     <numFmt numFmtId="50080" formatCode="0.000"/>
     <numFmt numFmtId="50081" formatCode="0.000"/>
-    <numFmt numFmtId="50082" formatCode="0.000"/>
-    <numFmt numFmtId="50083" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -496,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -744,28 +697,22 @@
     <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50083" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1066,15 +1013,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>48</v>
+      <c r="B2" s="6" t="n">
+        <v>0.127</v>
       </c>
     </row>
     <row r="3">
@@ -1082,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -1090,7 +1037,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1.532</v>
+        <v>1.373</v>
       </c>
     </row>
     <row r="5">
@@ -1098,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
@@ -1106,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.842</v>
+        <v>1.889</v>
       </c>
     </row>
     <row r="7">
@@ -1114,15 +1061,15 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>52</v>
+      <c r="B8" s="12" t="n">
+        <v>-1.585</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
@@ -1138,7 +1085,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1.232</v>
+        <v>1.223</v>
       </c>
     </row>
     <row r="11">
@@ -1146,15 +1093,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>55</v>
+      <c r="B12" s="16" t="n">
+        <v>-1.061</v>
       </c>
     </row>
     <row r="13">
@@ -1162,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1170,7 +1117,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-1.581</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="15">
@@ -1178,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
@@ -1186,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>0.124</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="17">
@@ -1194,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
@@ -1202,7 +1149,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1210,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
@@ -1218,7 +1165,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-1.696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1226,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
@@ -1234,7 +1181,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-1.939</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="23">
@@ -1242,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24">
@@ -1250,7 +1197,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-1.881</v>
+        <v>-0.093</v>
       </c>
     </row>
     <row r="25">
@@ -1258,15 +1205,15 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30" t="s">
-        <v>62</v>
+      <c r="B26" s="30" t="n">
+        <v>0.072</v>
       </c>
     </row>
     <row r="27">
@@ -1274,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1282,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-1.938</v>
+        <v>0.112</v>
       </c>
     </row>
     <row r="29">
@@ -1290,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1298,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-1.767</v>
+        <v>0.227</v>
       </c>
     </row>
     <row r="31">
@@ -1306,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -1314,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-1.701</v>
+        <v>0.159</v>
       </c>
     </row>
     <row r="33">
@@ -1322,15 +1269,15 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>66</v>
+      <c r="B34" s="38" t="n">
+        <v>0.046</v>
       </c>
     </row>
     <row r="35">
@@ -1338,7 +1285,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36">
@@ -1346,7 +1293,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-1.356</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="37">
@@ -1354,15 +1301,15 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>69</v>
+      <c r="B38" s="42" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="39">
@@ -1370,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
@@ -1378,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>-1.606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1386,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42">
@@ -1394,7 +1341,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>-1.6</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="43">
@@ -1402,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44">
@@ -1410,7 +1357,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>-1.508</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="45">
@@ -1418,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
@@ -1426,7 +1373,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>-1.617</v>
+        <v>0.246</v>
       </c>
     </row>
     <row r="47">
@@ -1434,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48">
@@ -1442,7 +1389,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>-1.614</v>
+        <v>0.254</v>
       </c>
     </row>
     <row r="49">
@@ -1450,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -1458,7 +1405,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>-1.564</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="51">
@@ -1466,7 +1413,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52">
@@ -1474,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>-1.515</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="53">
@@ -1482,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54">
@@ -1490,7 +1437,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="n">
-        <v>-1.557</v>
+        <v>-0.425</v>
       </c>
     </row>
     <row r="55">
@@ -1498,15 +1445,15 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="60" t="s">
-        <v>79</v>
+      <c r="B56" s="60" t="n">
+        <v>-0.365</v>
       </c>
     </row>
     <row r="57">
@@ -1514,15 +1461,15 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="s">
-        <v>80</v>
+      <c r="B58" s="62" t="n">
+        <v>-0.171</v>
       </c>
     </row>
     <row r="59">
@@ -1530,15 +1477,15 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="s">
-        <v>82</v>
+      <c r="B60" s="64" t="n">
+        <v>0.098</v>
       </c>
     </row>
     <row r="61">
@@ -1546,15 +1493,15 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="s">
-        <v>83</v>
+      <c r="B62" s="66" t="n">
+        <v>0.203</v>
       </c>
     </row>
     <row r="63">
@@ -1562,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
@@ -1570,7 +1517,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="68" t="n">
-        <v>-1.635</v>
+        <v>0.149</v>
       </c>
     </row>
     <row r="65">
@@ -1578,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="66">
@@ -1586,7 +1533,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="n">
-        <v>-1.672</v>
+        <v>-0.231</v>
       </c>
     </row>
     <row r="67">
@@ -1594,15 +1541,15 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="72" t="s">
-        <v>87</v>
+      <c r="B68" s="72" t="n">
+        <v>-0.339</v>
       </c>
     </row>
     <row r="69">
@@ -1610,15 +1557,15 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="s">
-        <v>89</v>
+      <c r="B70" s="74" t="n">
+        <v>0.081</v>
       </c>
     </row>
     <row r="71">
@@ -1626,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72">
@@ -1634,7 +1581,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="76" t="n">
-        <v>-1.758</v>
+        <v>-0.423</v>
       </c>
     </row>
     <row r="73">
@@ -1642,15 +1589,15 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="78" t="s">
-        <v>90</v>
+      <c r="B74" s="78" t="n">
+        <v>-0.226</v>
       </c>
     </row>
     <row r="75">
@@ -1658,15 +1605,15 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="s">
-        <v>91</v>
+      <c r="B76" s="80" t="n">
+        <v>-0.305</v>
       </c>
     </row>
     <row r="77">
@@ -1674,15 +1621,15 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="s">
-        <v>93</v>
+      <c r="B78" s="82" t="n">
+        <v>0.07</v>
       </c>
     </row>
     <row r="79">
@@ -1690,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="80">
@@ -1698,66 +1645,50 @@
         <v>40</v>
       </c>
       <c r="B80" s="84" t="n">
-        <v>-1.596</v>
+        <v>540</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="85" t="s">
-        <v>95</v>
+        <v>41</v>
+      </c>
+      <c r="B81" s="85" t="n">
+        <v>0.108</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>764</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B83" s="87" t="n">
-        <v>0.116</v>
+        <v>1.598</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>43</v>
+      <c r="A84" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B84" s="88" t="n">
-        <v>0.068</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B85" s="89" t="n">
-        <v>2.435</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="3" t="s">
+      <c r="A85" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="4"/>
+      <c r="B85" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A85:B85"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Deal_Size</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1982</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1983</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
     <t xml:space="preserve">as.factor(Deal_Year)1985</t>
   </si>
   <si>
+    <t xml:space="preserve">as.factor(Deal_Year)1986</t>
+  </si>
+  <si>
     <t xml:space="preserve">as.factor(Deal_Year)1987</t>
   </si>
   <si>
@@ -155,113 +161,158 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.969)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.218)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.207)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.091)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.723)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.260)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.002)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.175)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.170)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.366)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.171)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.113)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.024)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.034)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.047)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.071)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.009)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.994)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.989)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.977)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.967)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.968)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.965)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.972)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.975)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.985)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.992)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.987)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.025)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.072)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.051)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.026)</t>
+    <t xml:space="preserve">1.892 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.863)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.073)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.097 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.987)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.112)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.991)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.498)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.132)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003 **</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.056)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.055)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.053)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.453 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.057)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.215)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.912)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.902)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.895)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.898)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.783 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.880)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.888)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.882)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.878)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.876)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.873)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.869)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.868)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.866)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.082 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.029 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.870)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.862 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.752 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.949 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.885)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.038 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.889)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.913)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.019 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.004 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.964)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.083 * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.945)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.922)  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="82">
+  <numFmts count="86">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -344,6 +395,10 @@
     <numFmt numFmtId="50079" formatCode="0.000"/>
     <numFmt numFmtId="50080" formatCode="0.000"/>
     <numFmt numFmtId="50081" formatCode="0.000"/>
+    <numFmt numFmtId="50082" formatCode="0.000"/>
+    <numFmt numFmtId="50083" formatCode="0.000"/>
+    <numFmt numFmtId="50084" formatCode="0.000"/>
+    <numFmt numFmtId="50085" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -449,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -697,22 +752,34 @@
     <xf numFmtId="50076" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50077" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50077" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="50085" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1013,15 +1080,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.127</v>
+      <c r="B2" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1029,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -1037,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>1.373</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="5">
@@ -1045,15 +1112,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="n">
-        <v>1.889</v>
+      <c r="B6" s="10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
@@ -1061,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1069,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.585</v>
+        <v>-1.779</v>
       </c>
     </row>
     <row r="9">
@@ -1077,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -1085,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>1.223</v>
+        <v>1.663</v>
       </c>
     </row>
     <row r="11">
@@ -1093,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1101,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-1.061</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="13">
@@ -1109,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1117,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>0.59</v>
+        <v>1.724</v>
       </c>
     </row>
     <row r="15">
@@ -1125,15 +1192,15 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="n">
-        <v>0.003</v>
+      <c r="B16" s="20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1141,15 +1208,15 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="22" t="n">
-        <v>0</v>
+      <c r="B18" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1157,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -1173,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22">
@@ -1181,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.11</v>
+        <v>-1.654</v>
       </c>
     </row>
     <row r="23">
@@ -1189,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24">
@@ -1197,7 +1264,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.093</v>
+        <v>-1.897</v>
       </c>
     </row>
     <row r="25">
@@ -1205,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26">
@@ -1213,7 +1280,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>0.072</v>
+        <v>-1.883</v>
       </c>
     </row>
     <row r="27">
@@ -1221,15 +1288,15 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="32" t="n">
-        <v>0.112</v>
+      <c r="B28" s="32" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="29">
@@ -1237,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30">
@@ -1245,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>0.227</v>
+        <v>-1.938</v>
       </c>
     </row>
     <row r="31">
@@ -1253,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32">
@@ -1261,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>0.159</v>
+        <v>-1.712</v>
       </c>
     </row>
     <row r="33">
@@ -1269,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34">
@@ -1277,7 +1344,7 @@
         <v>17</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>0.046</v>
+        <v>-1.684</v>
       </c>
     </row>
     <row r="35">
@@ -1285,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
@@ -1293,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>0.262</v>
+        <v>-1.731</v>
       </c>
     </row>
     <row r="37">
@@ -1301,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -1309,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>0.18</v>
+        <v>-1.387</v>
       </c>
     </row>
     <row r="39">
@@ -1317,15 +1384,15 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="44" t="n">
-        <v>0</v>
+      <c r="B40" s="44" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="41">
@@ -1333,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
@@ -1341,7 +1408,7 @@
         <v>21</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.192</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="43">
@@ -1349,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="44">
@@ -1357,7 +1424,7 @@
         <v>22</v>
       </c>
       <c r="B44" s="48" t="n">
-        <v>0.208</v>
+        <v>-1.591</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46">
@@ -1373,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>0.246</v>
+        <v>-1.447</v>
       </c>
     </row>
     <row r="47">
@@ -1381,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -1389,7 +1456,7 @@
         <v>24</v>
       </c>
       <c r="B48" s="52" t="n">
-        <v>0.254</v>
+        <v>-1.589</v>
       </c>
     </row>
     <row r="49">
@@ -1397,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50">
@@ -1405,7 +1472,7 @@
         <v>25</v>
       </c>
       <c r="B50" s="54" t="n">
-        <v>0.192</v>
+        <v>-1.581</v>
       </c>
     </row>
     <row r="51">
@@ -1413,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -1421,7 +1488,7 @@
         <v>26</v>
       </c>
       <c r="B52" s="56" t="n">
-        <v>0.28</v>
+        <v>-1.463</v>
       </c>
     </row>
     <row r="53">
@@ -1429,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
@@ -1437,7 +1504,7 @@
         <v>27</v>
       </c>
       <c r="B54" s="58" t="n">
-        <v>-0.425</v>
+        <v>-1.424</v>
       </c>
     </row>
     <row r="55">
@@ -1445,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
@@ -1453,7 +1520,7 @@
         <v>28</v>
       </c>
       <c r="B56" s="60" t="n">
-        <v>-0.365</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="57">
@@ -1461,15 +1528,15 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B58" s="62" t="n">
-        <v>-0.171</v>
+      <c r="B58" s="62" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="59">
@@ -1477,15 +1544,15 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="64" t="n">
-        <v>0.098</v>
+      <c r="B60" s="64" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="61">
@@ -1493,15 +1560,15 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="66" t="n">
-        <v>0.203</v>
+      <c r="B62" s="66" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="63">
@@ -1509,15 +1576,15 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B64" s="68" t="n">
-        <v>0.149</v>
+      <c r="B64" s="68" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="65">
@@ -1525,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
@@ -1533,7 +1600,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="70" t="n">
-        <v>-0.231</v>
+        <v>-1.535</v>
       </c>
     </row>
     <row r="67">
@@ -1541,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
@@ -1549,7 +1616,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="72" t="n">
-        <v>-0.339</v>
+        <v>-1.616</v>
       </c>
     </row>
     <row r="69">
@@ -1557,15 +1624,15 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="74" t="n">
-        <v>0.081</v>
+      <c r="B70" s="74" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="71">
@@ -1573,15 +1640,15 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="76" t="n">
-        <v>-0.423</v>
+      <c r="B72" s="76" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="73">
@@ -1589,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74">
@@ -1597,7 +1664,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="78" t="n">
-        <v>-0.226</v>
+        <v>-1.767</v>
       </c>
     </row>
     <row r="75">
@@ -1605,15 +1672,15 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B76" s="80" t="n">
-        <v>-0.305</v>
+      <c r="B76" s="80" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="77">
@@ -1621,15 +1688,15 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="82" t="n">
-        <v>0.07</v>
+      <c r="B78" s="82" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="79">
@@ -1637,58 +1704,90 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B80" s="84" t="n">
-        <v>540</v>
+      <c r="B80" s="84" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" s="85" t="n">
-        <v>0.108</v>
+        <v>0</v>
+      </c>
+      <c r="B81" s="85" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B82" s="86" t="n">
-        <v>0.04</v>
+        <v>-1.709</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="87" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="88" t="n">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="87" t="n">
-        <v>1.598</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="3" t="s">
+      <c r="B85" s="89" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B84" s="88" t="n">
-        <v>0.015</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
+      <c r="B86" s="90" t="n">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="4"/>
+      <c r="B87" s="91" t="n">
+        <v>2.423</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A89:B89"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Total_Investments</t>
   </si>
   <si>
-    <t xml:space="preserve">Deal_Size</t>
+    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
@@ -161,151 +161,202 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.892 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.863)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.073)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.097 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.987)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.112)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.991)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.498)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.132)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003 **</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.056)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.055)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.053)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.453 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.057)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1.215)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.912)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.902)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.895)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.898)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.783 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.880)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.888)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.882)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.878)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.876)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.873)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.869)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.868)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.866)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.082 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.029 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.870)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.862 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.752 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.949 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.885)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.038 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.889)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.913)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.019 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.004 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.964)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.083 * </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.945)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.922)  </t>
+    <t xml:space="preserve">2.100 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.544)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.676 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.657)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.620)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.679)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.579 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.619)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.346 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.940)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.121 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.713)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.001)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.000)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.766)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.665)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.407 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.401 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.664)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.624 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.245 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.575)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.271 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.569)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.262 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.564)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.566)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.280 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.555)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.184 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.560)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.103 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.554)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.193 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.552)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.321 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.549)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.201 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.547)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.091 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.546)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.197 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.545)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.571 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.461 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.548)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.515 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.390 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.551)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.353 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.254 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.557)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.581 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.553)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.528 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.545 ** </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.565)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.450 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.449 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.607)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.525 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.595)   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.238 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.581)   </t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1154,8 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>1.416</v>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -1112,15 +1163,15 @@
         <v>0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>52</v>
+      <c r="B6" s="10" t="n">
+        <v>0.938</v>
       </c>
     </row>
     <row r="7">
@@ -1136,7 +1187,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>-1.779</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="9">
@@ -1151,8 +1202,8 @@
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="n">
-        <v>1.663</v>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1160,15 +1211,15 @@
         <v>0</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="16" t="n">
-        <v>0.456</v>
+      <c r="B12" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13">
@@ -1176,15 +1227,15 @@
         <v>0</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>1.724</v>
+      <c r="B14" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
@@ -1192,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
@@ -1200,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17">
@@ -1208,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18">
@@ -1216,7 +1267,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
@@ -1224,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
@@ -1232,7 +1283,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0</v>
+        <v>-1.177</v>
       </c>
     </row>
     <row r="21">
@@ -1240,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -1248,7 +1299,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-1.654</v>
+        <v>-1.276</v>
       </c>
     </row>
     <row r="23">
@@ -1256,15 +1307,15 @@
         <v>0</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="28" t="n">
-        <v>-1.897</v>
+      <c r="B24" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25">
@@ -1272,15 +1323,15 @@
         <v>0</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="30" t="n">
-        <v>-1.883</v>
+      <c r="B26" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -1288,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="31" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -1296,7 +1347,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -1312,7 +1363,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-1.938</v>
+        <v>-1.438</v>
       </c>
     </row>
     <row r="31">
@@ -1320,15 +1371,15 @@
         <v>0</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="36" t="n">
-        <v>-1.712</v>
+      <c r="B32" s="36" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33">
@@ -1336,15 +1387,15 @@
         <v>0</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="38" t="n">
-        <v>-1.684</v>
+      <c r="B34" s="38" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35">
@@ -1352,15 +1403,15 @@
         <v>0</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="40" t="n">
-        <v>-1.731</v>
+      <c r="B36" s="40" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37">
@@ -1368,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="B37" s="41" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
@@ -1376,7 +1427,7 @@
         <v>19</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-1.387</v>
+        <v>-1.023</v>
       </c>
     </row>
     <row r="39">
@@ -1384,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -1392,7 +1443,7 @@
         <v>20</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41">
@@ -1400,15 +1451,15 @@
         <v>0</v>
       </c>
       <c r="B41" s="45" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="46" t="n">
-        <v>-1.6</v>
+      <c r="B42" s="46" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="43">
@@ -1416,15 +1467,15 @@
         <v>0</v>
       </c>
       <c r="B43" s="47" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="48" t="n">
-        <v>-1.591</v>
+      <c r="B44" s="48" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="45">
@@ -1432,7 +1483,7 @@
         <v>0</v>
       </c>
       <c r="B45" s="49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
@@ -1440,7 +1491,7 @@
         <v>23</v>
       </c>
       <c r="B46" s="50" t="n">
-        <v>-1.447</v>
+        <v>-1.065</v>
       </c>
     </row>
     <row r="47">
@@ -1448,15 +1499,15 @@
         <v>0</v>
       </c>
       <c r="B47" s="51" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="52" t="n">
-        <v>-1.589</v>
+      <c r="B48" s="52" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="49">
@@ -1464,15 +1515,15 @@
         <v>0</v>
       </c>
       <c r="B49" s="53" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="54" t="n">
-        <v>-1.581</v>
+      <c r="B50" s="54" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="51">
@@ -1480,15 +1531,15 @@
         <v>0</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="56" t="n">
-        <v>-1.463</v>
+      <c r="B52" s="56" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="53">
@@ -1496,15 +1547,15 @@
         <v>0</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B54" s="58" t="n">
-        <v>-1.424</v>
+      <c r="B54" s="58" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55">
@@ -1512,15 +1563,15 @@
         <v>0</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B56" s="60" t="n">
-        <v>-1.45</v>
+      <c r="B56" s="60" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="57">
@@ -1528,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58">
@@ -1536,7 +1587,7 @@
         <v>29</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59">
@@ -1544,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="B59" s="63" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60">
@@ -1552,7 +1603,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="64" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61">
@@ -1560,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62">
@@ -1568,7 +1619,7 @@
         <v>31</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="63">
@@ -1576,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="B63" s="67" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64">
@@ -1584,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="68" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65">
@@ -1592,15 +1643,15 @@
         <v>0</v>
       </c>
       <c r="B65" s="69" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="70" t="n">
-        <v>-1.535</v>
+      <c r="B66" s="70" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="67">
@@ -1608,15 +1659,15 @@
         <v>0</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B68" s="72" t="n">
-        <v>-1.616</v>
+      <c r="B68" s="72" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="69">
@@ -1624,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="B69" s="73" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70">
@@ -1632,7 +1683,7 @@
         <v>35</v>
       </c>
       <c r="B70" s="74" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71">
@@ -1640,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72">
@@ -1648,7 +1699,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73">
@@ -1656,15 +1707,15 @@
         <v>0</v>
       </c>
       <c r="B73" s="77" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B74" s="78" t="n">
-        <v>-1.767</v>
+      <c r="B74" s="78" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="75">
@@ -1672,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="79" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
@@ -1680,7 +1731,7 @@
         <v>38</v>
       </c>
       <c r="B76" s="80" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77">
@@ -1688,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="81" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
     </row>
     <row r="78">
@@ -1696,7 +1747,7 @@
         <v>39</v>
       </c>
       <c r="B78" s="82" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
@@ -1704,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="83" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80">
@@ -1712,7 +1763,7 @@
         <v>40</v>
       </c>
       <c r="B80" s="84" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
@@ -1720,15 +1771,15 @@
         <v>0</v>
       </c>
       <c r="B81" s="85" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="86" t="n">
-        <v>-1.709</v>
+      <c r="B82" s="86" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="83">
@@ -1736,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="87" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84">
@@ -1744,7 +1795,7 @@
         <v>42</v>
       </c>
       <c r="B84" s="88" t="n">
-        <v>764</v>
+        <v>910</v>
       </c>
     </row>
     <row r="85">
@@ -1752,7 +1803,7 @@
         <v>43</v>
       </c>
       <c r="B85" s="89" t="n">
-        <v>0.118</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="86">
@@ -1760,7 +1811,7 @@
         <v>44</v>
       </c>
       <c r="B86" s="90" t="n">
-        <v>0.069</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="87">
@@ -1768,7 +1819,7 @@
         <v>45</v>
       </c>
       <c r="B87" s="91" t="n">
-        <v>2.423</v>
+        <v>3.639</v>
       </c>
     </row>
     <row r="88">

--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,31 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total_Investments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as.factor(Deal_Year)1981</t>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
@@ -161,209 +152,107 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">2.100 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.544)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.676 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.657)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.620)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.679)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.579 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.619)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.346 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.940)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.121 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.713)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.001)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.000)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.766)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.665)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.407 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.401 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.664)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.624 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.245 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.575)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.271 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.569)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.262 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.564)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.566)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.280 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.555)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.184 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.560)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.103 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.554)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.193 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.552)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.321 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.549)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.201 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.547)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.091 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.546)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.197 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.545)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.571 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.461 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.548)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.515 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.390 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.551)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.353 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.254 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.557)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.581 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.553)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.528 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.545 ** </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.565)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.450 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.449 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.607)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.525 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.595)   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.238 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.581)   </t>
+    <t xml:space="preserve">1.312 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.549)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.591)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.615)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.612)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.590)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.666)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.571)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.672)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.775)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.582)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.575)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.561)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.567)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.562)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.560)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.559)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.556)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.553)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.552)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.551)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.554)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.555)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.557)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.563)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.564)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.576)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.602)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.587)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="86">
+  <numFmts count="80">
     <numFmt numFmtId="50000" formatCode="0.000"/>
     <numFmt numFmtId="50001" formatCode="0.000"/>
     <numFmt numFmtId="50002" formatCode="0.000"/>
@@ -444,12 +333,6 @@
     <numFmt numFmtId="50077" formatCode="0.000"/>
     <numFmt numFmtId="50078" formatCode="0.000"/>
     <numFmt numFmtId="50079" formatCode="0.000"/>
-    <numFmt numFmtId="50080" formatCode="0.000"/>
-    <numFmt numFmtId="50081" formatCode="0.000"/>
-    <numFmt numFmtId="50082" formatCode="0.000"/>
-    <numFmt numFmtId="50083" formatCode="0.000"/>
-    <numFmt numFmtId="50084" formatCode="0.000"/>
-    <numFmt numFmtId="50085" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -555,7 +438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="center" vertical="top"/>
@@ -683,7 +566,10 @@
     <xf numFmtId="50036" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50037" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50037" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50038" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +581,7 @@
     <xf numFmtId="50040" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50041" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50041" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="50042" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -809,28 +695,13 @@
     <xf numFmtId="50078" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="50079" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50080" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50081" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50082" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50083" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50084" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50085" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="50079" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1131,714 +1002,494 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>49</v>
+      <c r="B2" s="6" t="n">
+        <v>0.987</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>51</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>52</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>-0.876</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.938</v>
+        <v>0.603</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>46</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.151</v>
+        <v>0.894</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="n">
+        <v>-0.215</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="n">
+        <v>-0.359</v>
+      </c>
+      <c r="C10" s="57" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>56</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>-0.211</v>
+      </c>
+      <c r="C11" s="58" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="16" t="n">
+        <v>-0.564</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>58</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="17" t="n">
+        <v>-0.261</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="18" t="n">
+        <v>-0.152</v>
+      </c>
+      <c r="C14" s="61" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="n">
+        <v>-0.173</v>
+      </c>
+      <c r="C15" s="62" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="C16" s="63" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>62</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="C17" s="64" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="22" t="n">
+        <v>-0.148</v>
+      </c>
+      <c r="C18" s="65" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>64</v>
+        <v>18</v>
+      </c>
+      <c r="B19" s="23" t="n">
+        <v>-0.086</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>-1.177</v>
+        <v>0.023</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="B21" s="25" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="C21" s="68" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-1.276</v>
+        <v>-0.059</v>
+      </c>
+      <c r="C22" s="69" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>66</v>
+        <v>22</v>
+      </c>
+      <c r="B23" s="27" t="n">
+        <v>-0.173</v>
+      </c>
+      <c r="C23" s="70" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>67</v>
+        <v>23</v>
+      </c>
+      <c r="B24" s="28" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="C24" s="71" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>66</v>
+        <v>24</v>
+      </c>
+      <c r="B25" s="29" t="n">
+        <v>0.037</v>
+      </c>
+      <c r="C25" s="72" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="30" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="C26" s="73" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>69</v>
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="n">
+        <v>-0.466</v>
+      </c>
+      <c r="C27" s="74" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>70</v>
+        <v>27</v>
+      </c>
+      <c r="B28" s="32" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>66</v>
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="n">
+        <v>-0.378</v>
+      </c>
+      <c r="C29" s="76" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-1.438</v>
+        <v>-0.272</v>
+      </c>
+      <c r="C30" s="77" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>65</v>
+        <v>30</v>
+      </c>
+      <c r="B31" s="35" t="n">
+        <v>-0.251</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="36" t="n">
+        <v>-0.158</v>
+      </c>
+      <c r="C32" s="79" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="37" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="B33" s="37" t="n">
+        <v>-0.429</v>
+      </c>
+      <c r="C33" s="80" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="B34" s="38" t="n">
+        <v>-0.362</v>
+      </c>
+      <c r="C34" s="81" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="B35" s="39" t="n">
+        <v>-0.407</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="40" t="s">
-        <v>75</v>
+        <v>35</v>
+      </c>
+      <c r="B36" s="40" t="n">
+        <v>-0.298</v>
+      </c>
+      <c r="C36" s="83" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="B37" s="41" t="n">
+        <v>-0.224</v>
+      </c>
+      <c r="C37" s="84" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-1.023</v>
+        <v>-0.3</v>
+      </c>
+      <c r="C38" s="85" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="B39" s="43" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="C39" s="86" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B40" s="44" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="44" t="n">
+        <v>909</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>79</v>
+        <v>40</v>
+      </c>
+      <c r="B41" s="45" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="C41" s="87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B42" s="46" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="B42" s="46" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="C42" s="87" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="47" t="n">
+        <v>3.034</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="B43" s="47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="48" t="s">
-        <v>82</v>
+      <c r="C44" s="88" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="50" t="n">
-        <v>-1.065</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="52" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="57" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" s="59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="60" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="61" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="63" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B64" s="68" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B65" s="69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B66" s="70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="74" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="76" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="77" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B74" s="78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76" s="80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="81" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B78" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B80" s="84" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" s="85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="86" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="87" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B84" s="88" t="n">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B85" s="89" t="n">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B86" s="90" t="n">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="91" t="n">
-        <v>3.639</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B88" s="92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B89" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A89:B89"/>
+  <mergeCells count="2">
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,22 +20,22 @@
     <t xml:space="preserve">(Intercept)</t>
   </si>
   <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_GeoHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_StageHHI, 2)2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poly(LFund_PIGHHI, 2)2</t>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_GeoHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_StageHHI, 2)2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poly(Fund_PIGHHI, 2)2</t>
   </si>
   <si>
     <t xml:space="preserve">as.factor(Deal_Year)1982</t>
@@ -152,49 +152,49 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.312 *</t>
+    <t xml:space="preserve">1.369 *</t>
   </si>
   <si>
     <t xml:space="preserve">(0.549)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.591)</t>
+    <t xml:space="preserve">(0.588)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.615)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.612)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.590)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.666)</t>
+    <t xml:space="preserve">(0.614)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.587)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.665)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.672)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.775)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.582)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.575)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.571)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.672)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.775)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.582)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.575)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.573)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.561)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.567)</t>
+    <t xml:space="preserve">(0.566)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.562)</t>
@@ -236,13 +236,7 @@
     <t xml:space="preserve">(0.576)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.614)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.602)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.587)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1011,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>0.987</v>
+        <v>0.985</v>
       </c>
       <c r="C2" s="49" t="s">
         <v>47</v>
@@ -1022,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.175</v>
+        <v>0.203</v>
       </c>
       <c r="C3" s="50" t="s">
         <v>48</v>
@@ -1033,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.871</v>
+        <v>0.957</v>
       </c>
       <c r="C4" s="51" t="s">
         <v>49</v>
@@ -1044,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="n">
-        <v>-0.876</v>
+        <v>-0.843</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>50</v>
@@ -1055,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.603</v>
+        <v>0.673</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>51</v>
@@ -1077,7 +1071,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.894</v>
+        <v>0.835</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>53</v>
@@ -1088,7 +1082,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.215</v>
+        <v>-0.21</v>
       </c>
       <c r="C9" s="56" t="s">
         <v>54</v>
@@ -1099,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.359</v>
+        <v>-0.356</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>54</v>
@@ -1110,7 +1104,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.211</v>
+        <v>-0.209</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>54</v>
@@ -1121,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.564</v>
+        <v>-0.558</v>
       </c>
       <c r="C12" s="59" t="s">
         <v>54</v>
@@ -1143,7 +1137,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.152</v>
+        <v>-0.15</v>
       </c>
       <c r="C14" s="61" t="s">
         <v>56</v>
@@ -1154,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="n">
-        <v>-0.173</v>
+        <v>-0.17</v>
       </c>
       <c r="C15" s="62" t="s">
         <v>57</v>
@@ -1168,7 +1162,7 @@
         <v>-0.137</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1176,10 +1170,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>0.104</v>
+        <v>0.108</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
@@ -1187,7 +1181,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.148</v>
+        <v>-0.147</v>
       </c>
       <c r="C18" s="65" t="s">
         <v>59</v>
@@ -1198,7 +1192,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.086</v>
+        <v>-0.085</v>
       </c>
       <c r="C19" s="66" t="s">
         <v>60</v>
@@ -1209,7 +1203,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0.023</v>
+        <v>0.025</v>
       </c>
       <c r="C20" s="67" t="s">
         <v>61</v>
@@ -1220,7 +1214,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="C21" s="68" t="s">
         <v>62</v>
@@ -1231,7 +1225,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.059</v>
+        <v>-0.057</v>
       </c>
       <c r="C22" s="69" t="s">
         <v>63</v>
@@ -1242,7 +1236,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.173</v>
+        <v>-0.17</v>
       </c>
       <c r="C23" s="70" t="s">
         <v>64</v>
@@ -1253,7 +1247,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.082</v>
+        <v>-0.08</v>
       </c>
       <c r="C24" s="71" t="s">
         <v>65</v>
@@ -1264,7 +1258,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="C25" s="72" t="s">
         <v>65</v>
@@ -1275,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.065</v>
+        <v>-0.063</v>
       </c>
       <c r="C26" s="73" t="s">
         <v>66</v>
@@ -1286,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.466</v>
+        <v>-0.465</v>
       </c>
       <c r="C27" s="74" t="s">
         <v>67</v>
@@ -1297,7 +1291,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.332</v>
+        <v>-0.329</v>
       </c>
       <c r="C28" s="75" t="s">
         <v>68</v>
@@ -1308,7 +1302,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.378</v>
+        <v>-0.375</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>69</v>
@@ -1319,7 +1313,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-0.272</v>
+        <v>-0.27</v>
       </c>
       <c r="C30" s="77" t="s">
         <v>70</v>
@@ -1330,7 +1324,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="n">
-        <v>-0.251</v>
+        <v>-0.248</v>
       </c>
       <c r="C31" s="78" t="s">
         <v>69</v>
@@ -1341,7 +1335,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-0.158</v>
+        <v>-0.155</v>
       </c>
       <c r="C32" s="79" t="s">
         <v>71</v>
@@ -1352,7 +1346,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>-0.429</v>
+        <v>-0.426</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>62</v>
@@ -1363,7 +1357,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-0.362</v>
+        <v>-0.359</v>
       </c>
       <c r="C34" s="81" t="s">
         <v>72</v>
@@ -1374,10 +1368,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>-0.407</v>
+        <v>-0.405</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36">
@@ -1385,7 +1379,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-0.298</v>
+        <v>-0.293</v>
       </c>
       <c r="C36" s="83" t="s">
         <v>73</v>
@@ -1396,10 +1390,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="n">
-        <v>-0.224</v>
+        <v>-0.218</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38">
@@ -1407,10 +1401,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-0.3</v>
+        <v>-0.293</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
@@ -1418,10 +1412,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="n">
-        <v>-0.013</v>
+        <v>-0.007</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40">
@@ -1432,7 +1426,7 @@
         <v>909</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41">
@@ -1443,7 +1437,7 @@
         <v>0.114</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42">
@@ -1454,7 +1448,7 @@
         <v>0.077</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43">
@@ -1462,10 +1456,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>3.034</v>
+        <v>3.042</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
@@ -1476,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">

--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -152,91 +152,94 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.369 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.549)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.588)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.615)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.614)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.587)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.665)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.573)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.672)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.775)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.582)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.575)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.571)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.561)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.566)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.562)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.560)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.559)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.556)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.553)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.552)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.551)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.554)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.555)</t>
+    <t xml:space="preserve">1.001 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.275 *  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.937 ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.498)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.527)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.546)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.603)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.616)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.542)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.610)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.609)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.704)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.528)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.522)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.518)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.520)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.509)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.514)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.510)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.508)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.507)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.505)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.502)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.501)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.503)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.506)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.504)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.511)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.557)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.563)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.564)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.576)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.602)</t>
+    <t xml:space="preserve">(0.533)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1004,11 +1007,11 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>0.985</v>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -1016,32 +1019,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.203</v>
+        <v>-0.007</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="n">
-        <v>0.957</v>
+      <c r="B4" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="n">
-        <v>-0.843</v>
+      <c r="B5" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
@@ -1049,21 +1052,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.673</v>
+        <v>0.919</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>46</v>
+      <c r="B7" s="11" t="n">
+        <v>0.327</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1071,10 +1074,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="n">
-        <v>0.835</v>
+        <v>0.107</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9">
@@ -1082,10 +1085,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.21</v>
+        <v>-0.15</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
@@ -1093,10 +1096,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.356</v>
+        <v>-0.297</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1104,10 +1107,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.209</v>
+        <v>-0.208</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1115,10 +1118,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.558</v>
+        <v>-0.498</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
@@ -1129,7 +1132,7 @@
         <v>-0.261</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -1137,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.15</v>
+        <v>-0.183</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -1148,10 +1151,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="n">
-        <v>-0.17</v>
+        <v>-0.156</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1159,10 +1162,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.137</v>
+        <v>-0.169</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -1170,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>0.108</v>
+        <v>0.112</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -1181,10 +1184,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.147</v>
+        <v>-0.164</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -1192,10 +1195,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.085</v>
+        <v>-0.102</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -1203,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -1214,10 +1217,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
@@ -1225,10 +1228,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.057</v>
+        <v>-0.068</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -1236,10 +1239,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.17</v>
+        <v>-0.039</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24">
@@ -1247,10 +1250,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.08</v>
+        <v>0.055</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25">
@@ -1258,10 +1261,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>0.04</v>
+        <v>0.112</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26">
@@ -1269,10 +1272,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.063</v>
+        <v>0.106</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27">
@@ -1280,10 +1283,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.465</v>
+        <v>-0.278</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -1291,10 +1294,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.329</v>
+        <v>-0.279</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
@@ -1302,10 +1305,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.375</v>
+        <v>-0.085</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1313,10 +1316,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-0.27</v>
+        <v>-0.161</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -1324,10 +1327,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="n">
-        <v>-0.248</v>
+        <v>-0.043</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32">
@@ -1335,10 +1338,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-0.155</v>
+        <v>-0.013</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33">
@@ -1346,10 +1349,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>-0.426</v>
+        <v>-0.159</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34">
@@ -1357,10 +1360,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-0.359</v>
+        <v>-0.229</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
@@ -1368,7 +1371,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>-0.405</v>
+        <v>-0.083</v>
       </c>
       <c r="C35" s="82" t="s">
         <v>58</v>
@@ -1379,10 +1382,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-0.293</v>
+        <v>-0.135</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
@@ -1390,10 +1393,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="n">
-        <v>-0.218</v>
+        <v>-0.187</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -1401,10 +1404,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-0.293</v>
+        <v>-0.263</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39">
@@ -1412,10 +1415,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="n">
-        <v>-0.007</v>
+        <v>0.024</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40">
@@ -1423,10 +1426,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>909</v>
+        <v>796</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
@@ -1434,10 +1437,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>0.114</v>
+        <v>0.107</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -1445,10 +1448,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.077</v>
+        <v>0.063</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -1456,10 +1459,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>3.042</v>
+        <v>2.449</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">

--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -152,94 +152,94 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">1.001 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.275 *  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">-1.937 ***</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.498)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.527)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.546)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.603)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.616)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.542)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.610)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.609)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.704)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.528)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.522)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.518)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.520)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.509)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.514)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.510)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.508)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.507)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.505)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.502)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.501)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.503)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.506)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.504)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.511)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.557)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.533)</t>
+    <t xml:space="preserve">-1.286 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.466 *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.559)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.588)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.606)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.607)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.663)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.679)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.685)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.684)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.790)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.593)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.586)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.582)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.583)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.572)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.577)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.570)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.569)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.566)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.563)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.562)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.561)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.564)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.565)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.574)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.580)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.625)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.613)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.598)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1007,11 +1007,11 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
+      <c r="B2" s="6" t="n">
+        <v>1.002</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3">
@@ -1019,21 +1019,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>-0.007</v>
+        <v>0.346</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>47</v>
+      <c r="B4" s="8" t="n">
+        <v>0.824</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" s="52" t="s">
         <v>51</v>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>0.919</v>
+        <v>1.1</v>
       </c>
       <c r="C6" s="53" t="s">
         <v>52</v>
@@ -1063,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.327</v>
+        <v>0.566</v>
       </c>
       <c r="C7" s="54" t="s">
         <v>53</v>
@@ -1073,11 +1073,11 @@
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="n">
-        <v>0.107</v>
+      <c r="B8" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1085,10 +1085,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.15</v>
+        <v>-0.201</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10">
@@ -1096,10 +1096,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.297</v>
+        <v>-0.347</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
@@ -1107,10 +1107,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.208</v>
+        <v>-0.209</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12">
@@ -1118,10 +1118,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.498</v>
+        <v>-0.549</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -1132,7 +1132,7 @@
         <v>-0.261</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
@@ -1140,10 +1140,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.183</v>
+        <v>-0.152</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1151,10 +1151,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="n">
-        <v>-0.156</v>
+        <v>-0.168</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.169</v>
+        <v>-0.14</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
@@ -1173,10 +1173,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>0.112</v>
+        <v>0.106</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
@@ -1184,10 +1184,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.164</v>
+        <v>-0.149</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
@@ -1195,10 +1195,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.102</v>
+        <v>-0.085</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
@@ -1206,10 +1206,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0.016</v>
+        <v>0.022</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21">
@@ -1217,10 +1217,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="25" t="n">
-        <v>0.058</v>
+        <v>0.052</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
@@ -1228,10 +1228,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.068</v>
+        <v>-0.067</v>
       </c>
       <c r="C22" s="69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23">
@@ -1239,10 +1239,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="27" t="n">
-        <v>-0.039</v>
+        <v>-0.176</v>
       </c>
       <c r="C23" s="70" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24">
@@ -1250,10 +1250,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>0.055</v>
+        <v>-0.086</v>
       </c>
       <c r="C24" s="71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25">
@@ -1261,10 +1261,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>0.112</v>
+        <v>0.023</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26">
@@ -1272,10 +1272,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>0.106</v>
+        <v>-0.094</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27">
@@ -1283,10 +1283,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.278</v>
+        <v>-0.473</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28">
@@ -1294,10 +1294,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.279</v>
+        <v>-0.346</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29">
@@ -1305,10 +1305,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.085</v>
+        <v>-0.338</v>
       </c>
       <c r="C29" s="76" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
@@ -1316,10 +1316,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-0.161</v>
+        <v>-0.283</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31">
@@ -1327,10 +1327,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="n">
-        <v>-0.043</v>
+        <v>-0.249</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32">
@@ -1338,10 +1338,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-0.013</v>
+        <v>-0.159</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -1349,10 +1349,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>-0.159</v>
+        <v>-0.378</v>
       </c>
       <c r="C33" s="80" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34">
@@ -1360,10 +1360,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-0.229</v>
+        <v>-0.377</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35">
@@ -1371,10 +1371,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>-0.083</v>
+        <v>-0.482</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36">
@@ -1382,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-0.135</v>
+        <v>-0.308</v>
       </c>
       <c r="C36" s="83" t="s">
         <v>58</v>
@@ -1393,10 +1393,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="n">
-        <v>-0.187</v>
+        <v>-0.23</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
@@ -1404,10 +1404,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-0.263</v>
+        <v>-0.306</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39">
@@ -1415,7 +1415,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="n">
-        <v>0.024</v>
+        <v>-0.019</v>
       </c>
       <c r="C39" s="86" t="s">
         <v>75</v>
@@ -1426,7 +1426,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>796</v>
+        <v>941</v>
       </c>
       <c r="C40" s="87" t="s">
         <v>76</v>
@@ -1437,7 +1437,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="45" t="n">
-        <v>0.107</v>
+        <v>0.109</v>
       </c>
       <c r="C41" s="87" t="s">
         <v>76</v>
@@ -1448,7 +1448,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="46" t="n">
-        <v>0.063</v>
+        <v>0.073</v>
       </c>
       <c r="C42" s="87" t="s">
         <v>76</v>
@@ -1459,7 +1459,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>2.449</v>
+        <v>2.987</v>
       </c>
       <c r="C43" s="87" t="s">
         <v>76</v>

--- a/IRR_ols2.xlsx
+++ b/IRR_ols2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -152,28 +152,25 @@
     <t xml:space="preserve">(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">-1.286 *</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.466 *</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.559)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.588)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.606)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.607)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.663)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.679)</t>
+    <t xml:space="preserve">(0.638)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.661)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.110)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.772)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1.148)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.743)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.685)</t>
@@ -194,7 +191,7 @@
     <t xml:space="preserve">(0.582)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.583)</t>
+    <t xml:space="preserve">(0.584)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.572)</t>
@@ -203,7 +200,10 @@
     <t xml:space="preserve">(0.577)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.570)</t>
+    <t xml:space="preserve">(0.573)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.571)</t>
   </si>
   <si>
     <t xml:space="preserve">(0.569)</t>
@@ -212,6 +212,9 @@
     <t xml:space="preserve">(0.566)</t>
   </si>
   <si>
+    <t xml:space="preserve">(0.564)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.563)</t>
   </si>
   <si>
@@ -221,12 +224,12 @@
     <t xml:space="preserve">(0.561)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.564)</t>
-  </si>
-  <si>
     <t xml:space="preserve">(0.565)</t>
   </si>
   <si>
+    <t xml:space="preserve">(0.567)</t>
+  </si>
+  <si>
     <t xml:space="preserve">(0.574)</t>
   </si>
   <si>
@@ -236,10 +239,10 @@
     <t xml:space="preserve">(0.625)</t>
   </si>
   <si>
-    <t xml:space="preserve">(0.613)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0.598)</t>
+    <t xml:space="preserve">(0.612)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0.597)</t>
   </si>
   <si>
     <t xml:space="preserve">     </t>
@@ -1008,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>1.002</v>
+        <v>0.999</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +1022,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="n">
-        <v>0.346</v>
+        <v>-1.164</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
@@ -1030,21 +1033,21 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="n">
-        <v>0.824</v>
+        <v>1.021</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
+      <c r="B5" s="9" t="n">
+        <v>1.491</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
@@ -1052,10 +1055,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="n">
-        <v>1.1</v>
+        <v>0.63</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -1063,21 +1066,21 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="n">
-        <v>0.566</v>
+        <v>-1.398</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
+      <c r="B8" s="12" t="n">
+        <v>0.823</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -1085,10 +1088,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>-0.201</v>
+        <v>-0.188</v>
       </c>
       <c r="C9" s="56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1096,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="14" t="n">
-        <v>-0.347</v>
+        <v>-0.337</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>54</v>
@@ -1107,10 +1110,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="15" t="n">
-        <v>-0.209</v>
+        <v>-0.206</v>
       </c>
       <c r="C11" s="58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
@@ -1118,10 +1121,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="16" t="n">
-        <v>-0.549</v>
+        <v>-0.536</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1132,7 +1135,7 @@
         <v>-0.261</v>
       </c>
       <c r="C13" s="60" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
@@ -1140,10 +1143,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>-0.152</v>
+        <v>-0.144</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -1151,10 +1154,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="n">
-        <v>-0.168</v>
+        <v>-0.163</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1165,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="n">
-        <v>-0.14</v>
+        <v>-0.125</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -1173,10 +1176,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="21" t="n">
-        <v>0.106</v>
+        <v>0.11</v>
       </c>
       <c r="C17" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
@@ -1184,10 +1187,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="22" t="n">
-        <v>-0.149</v>
+        <v>-0.134</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
@@ -1195,10 +1198,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="23" t="n">
-        <v>-0.085</v>
+        <v>-0.074</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
@@ -1206,10 +1209,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="n">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="C20" s="67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
@@ -1228,7 +1231,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="26" t="n">
-        <v>-0.067</v>
+        <v>-0.068</v>
       </c>
       <c r="C22" s="69" t="s">
         <v>64</v>
@@ -1250,7 +1253,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="28" t="n">
-        <v>-0.086</v>
+        <v>-0.081</v>
       </c>
       <c r="C24" s="71" t="s">
         <v>66</v>
@@ -1261,10 +1264,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="29" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="C25" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26">
@@ -1272,10 +1275,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="30" t="n">
-        <v>-0.094</v>
+        <v>-0.089</v>
       </c>
       <c r="C26" s="73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27">
@@ -1283,10 +1286,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="31" t="n">
-        <v>-0.473</v>
+        <v>-0.464</v>
       </c>
       <c r="C27" s="74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28">
@@ -1294,10 +1297,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>-0.346</v>
+        <v>-0.344</v>
       </c>
       <c r="C28" s="75" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29">
@@ -1305,7 +1308,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="33" t="n">
-        <v>-0.338</v>
+        <v>-0.332</v>
       </c>
       <c r="C29" s="76" t="s">
         <v>70</v>
@@ -1316,10 +1319,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="n">
-        <v>-0.283</v>
+        <v>-0.294</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31">
@@ -1327,10 +1330,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="35" t="n">
-        <v>-0.249</v>
+        <v>-0.25</v>
       </c>
       <c r="C31" s="78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
@@ -1338,10 +1341,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="36" t="n">
-        <v>-0.159</v>
+        <v>-0.17</v>
       </c>
       <c r="C32" s="79" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
@@ -1349,7 +1352,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="37" t="n">
-        <v>-0.378</v>
+        <v>-0.39</v>
       </c>
       <c r="C33" s="80" t="s">
         <v>64</v>
@@ -1360,10 +1363,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="38" t="n">
-        <v>-0.377</v>
+        <v>-0.39</v>
       </c>
       <c r="C34" s="81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35">
@@ -1371,10 +1374,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="39" t="n">
-        <v>-0.482</v>
+        <v>-0.497</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36">
@@ -1382,10 +1385,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="40" t="n">
-        <v>-0.308</v>
+        <v>-0.32</v>
       </c>
       <c r="C36" s="83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
@@ -1393,10 +1396,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="41" t="n">
-        <v>-0.23</v>
+        <v>-0.258</v>
       </c>
       <c r="C37" s="84" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -1404,10 +1407,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="42" t="n">
-        <v>-0.306</v>
+        <v>-0.334</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
@@ -1415,10 +1418,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="43" t="n">
-        <v>-0.019</v>
+        <v>-0.047</v>
       </c>
       <c r="C39" s="86" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
@@ -1426,10 +1429,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="44" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
@@ -1440,7 +1443,7 @@
         <v>0.109</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
@@ -1451,7 +1454,7 @@
         <v>0.073</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -1459,10 +1462,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="47" t="n">
-        <v>2.987</v>
+        <v>2.992</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
@@ -1473,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="C44" s="88" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
